--- a/Code/Results/Cases/Case_1_97/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_97/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9769394586136297</v>
+        <v>1.01221018469611</v>
       </c>
       <c r="D2">
-        <v>1.042654817837614</v>
+        <v>1.045569785128762</v>
       </c>
       <c r="E2">
-        <v>0.9865869037983649</v>
+        <v>1.014288546000627</v>
       </c>
       <c r="F2">
-        <v>1.036074161629958</v>
+        <v>1.048685544409157</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059209371076828</v>
+        <v>1.039436976155305</v>
       </c>
       <c r="J2">
-        <v>0.9998324849080813</v>
+        <v>1.017454211236662</v>
       </c>
       <c r="K2">
-        <v>1.053550245052094</v>
+        <v>1.048337655675921</v>
       </c>
       <c r="L2">
-        <v>0.9982363222018755</v>
+        <v>1.017147146308949</v>
       </c>
       <c r="M2">
-        <v>1.047052801629391</v>
+        <v>1.05144469945639</v>
       </c>
       <c r="N2">
-        <v>1.003994105011295</v>
+        <v>1.00994939178592</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9812167363962171</v>
+        <v>1.013116714357632</v>
       </c>
       <c r="D3">
-        <v>1.045651863606077</v>
+        <v>1.046147893768083</v>
       </c>
       <c r="E3">
-        <v>0.9899567315804562</v>
+        <v>1.015055512287565</v>
       </c>
       <c r="F3">
-        <v>1.039798779713354</v>
+        <v>1.049446784146355</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060339108014398</v>
+        <v>1.039560038532723</v>
       </c>
       <c r="J3">
-        <v>1.00223288716241</v>
+        <v>1.017994566395177</v>
       </c>
       <c r="K3">
-        <v>1.055732131668202</v>
+        <v>1.048727839110871</v>
       </c>
       <c r="L3">
-        <v>1.000719751542914</v>
+        <v>1.017719132122746</v>
       </c>
       <c r="M3">
-        <v>1.049946545294953</v>
+        <v>1.052018165815712</v>
       </c>
       <c r="N3">
-        <v>1.004803926656853</v>
+        <v>1.010129820119729</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9839295641262189</v>
+        <v>1.013703795212341</v>
       </c>
       <c r="D4">
-        <v>1.047541793894985</v>
+        <v>1.046520266251091</v>
       </c>
       <c r="E4">
-        <v>0.9921005976472266</v>
+        <v>1.015552622526932</v>
       </c>
       <c r="F4">
-        <v>1.042151837246204</v>
+        <v>1.049937915616048</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061035595414661</v>
+        <v>1.039637156974232</v>
       </c>
       <c r="J4">
-        <v>1.003753482329548</v>
+        <v>1.018344121375491</v>
       </c>
       <c r="K4">
-        <v>1.057098391364824</v>
+        <v>1.048977914197344</v>
       </c>
       <c r="L4">
-        <v>1.002295305852043</v>
+        <v>1.018089420633729</v>
       </c>
       <c r="M4">
-        <v>1.051766812172058</v>
+        <v>1.0523871363357</v>
       </c>
       <c r="N4">
-        <v>1.005316651320305</v>
+        <v>1.01024647998461</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9850573597916286</v>
+        <v>1.013950721462018</v>
       </c>
       <c r="D5">
-        <v>1.048324753583306</v>
+        <v>1.046676401562198</v>
       </c>
       <c r="E5">
-        <v>0.9929933939943605</v>
+        <v>1.015761805262442</v>
       </c>
       <c r="F5">
-        <v>1.043127737997498</v>
+        <v>1.050144039545013</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061320252690999</v>
+        <v>1.039668975046893</v>
       </c>
       <c r="J5">
-        <v>1.004385160480684</v>
+        <v>1.018491051407282</v>
       </c>
       <c r="K5">
-        <v>1.057662058030773</v>
+        <v>1.049082469114757</v>
       </c>
       <c r="L5">
-        <v>1.00295038081103</v>
+        <v>1.018245130742215</v>
       </c>
       <c r="M5">
-        <v>1.052519821025229</v>
+        <v>1.052541746206001</v>
       </c>
       <c r="N5">
-        <v>1.005529575244892</v>
+        <v>1.010295501992123</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9852459910917315</v>
+        <v>1.013992188319462</v>
       </c>
       <c r="D6">
-        <v>1.048455544685013</v>
+        <v>1.046702593247039</v>
       </c>
       <c r="E6">
-        <v>0.9931428089444644</v>
+        <v>1.015796939506255</v>
       </c>
       <c r="F6">
-        <v>1.04329082383809</v>
+        <v>1.050178628190763</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061367573573032</v>
+        <v>1.039674282069646</v>
       </c>
       <c r="J6">
-        <v>1.004490784018957</v>
+        <v>1.018515720231938</v>
       </c>
       <c r="K6">
-        <v>1.057756077779146</v>
+        <v>1.049099990467059</v>
       </c>
       <c r="L6">
-        <v>1.003059949798155</v>
+        <v>1.018271277513722</v>
       </c>
       <c r="M6">
-        <v>1.052645544591153</v>
+        <v>1.052567676178244</v>
       </c>
       <c r="N6">
-        <v>1.005565174284856</v>
+        <v>1.010303731712491</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9839446830118014</v>
+        <v>1.013707094192926</v>
       </c>
       <c r="D7">
-        <v>1.047552300968452</v>
+        <v>1.046522354153342</v>
       </c>
       <c r="E7">
-        <v>0.9921125602057483</v>
+        <v>1.015555416862429</v>
       </c>
       <c r="F7">
-        <v>1.042164929215378</v>
+        <v>1.049940671223869</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061039430872503</v>
+        <v>1.039637584498116</v>
       </c>
       <c r="J7">
-        <v>1.003761952330684</v>
+        <v>1.018346084753088</v>
       </c>
       <c r="K7">
-        <v>1.057105964926941</v>
+        <v>1.048979313533907</v>
       </c>
       <c r="L7">
-        <v>1.002304087339778</v>
+        <v>1.01809150108093</v>
       </c>
       <c r="M7">
-        <v>1.051776921637706</v>
+        <v>1.05238920422917</v>
       </c>
       <c r="N7">
-        <v>1.005319506638697</v>
+        <v>1.010247135105255</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9783966248090479</v>
+        <v>1.01251644732684</v>
       </c>
       <c r="D8">
-        <v>1.043678057905963</v>
+        <v>1.045765510659034</v>
       </c>
       <c r="E8">
-        <v>0.9877335156052043</v>
+        <v>1.014547572703912</v>
       </c>
       <c r="F8">
-        <v>1.037344921496596</v>
+        <v>1.048943105850657</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059598394719806</v>
+        <v>1.039479084807838</v>
       </c>
       <c r="J8">
-        <v>1.000650609901167</v>
+        <v>1.017636844955866</v>
       </c>
       <c r="K8">
-        <v>1.054297182589587</v>
+        <v>1.048470015577145</v>
       </c>
       <c r="L8">
-        <v>0.9990822485139094</v>
+        <v>1.017340414556784</v>
       </c>
       <c r="M8">
-        <v>1.048041720939734</v>
+        <v>1.05163893856484</v>
       </c>
       <c r="N8">
-        <v>1.004270171381702</v>
+        <v>1.01001038663488</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9681784337173195</v>
+        <v>1.010422222433714</v>
       </c>
       <c r="D9">
-        <v>1.036461236849169</v>
+        <v>1.044418926061806</v>
       </c>
       <c r="E9">
-        <v>0.979722919609424</v>
+        <v>1.012778060446377</v>
       </c>
       <c r="F9">
-        <v>1.028399250836667</v>
+        <v>1.047174342393254</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05678889903003</v>
+        <v>1.039180614189156</v>
       </c>
       <c r="J9">
-        <v>0.9949071983327976</v>
+        <v>1.016386426094656</v>
       </c>
       <c r="K9">
-        <v>1.0489892118749</v>
+        <v>1.047554282607424</v>
       </c>
       <c r="L9">
-        <v>0.9931537745911131</v>
+        <v>1.016018299797517</v>
       </c>
       <c r="M9">
-        <v>1.041047780910469</v>
+        <v>1.050300893789225</v>
       </c>
       <c r="N9">
-        <v>1.002331078214524</v>
+        <v>1.009592539567516</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9610370393929563</v>
+        <v>1.009028727386166</v>
       </c>
       <c r="D10">
-        <v>1.031370205539606</v>
+        <v>1.043512654874704</v>
       </c>
       <c r="E10">
-        <v>0.9741646627261769</v>
+        <v>1.011602804547341</v>
       </c>
       <c r="F10">
-        <v>1.022108404034902</v>
+        <v>1.045987973050702</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054725591643312</v>
+        <v>1.038968819703922</v>
       </c>
       <c r="J10">
-        <v>0.9908866094917026</v>
+        <v>1.015552442958052</v>
       </c>
       <c r="K10">
-        <v>1.045195255725286</v>
+        <v>1.046931624623644</v>
       </c>
       <c r="L10">
-        <v>0.9890165936669347</v>
+        <v>1.015137897706406</v>
       </c>
       <c r="M10">
-        <v>1.036089637167004</v>
+        <v>1.049398261267985</v>
       </c>
       <c r="N10">
-        <v>1.000972455262911</v>
+        <v>1.009313551294094</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9578588419050688</v>
+        <v>1.008425972335102</v>
       </c>
       <c r="D11">
-        <v>1.029095103377922</v>
+        <v>1.043118231916976</v>
       </c>
       <c r="E11">
-        <v>0.9717013706479873</v>
+        <v>1.011094972761635</v>
       </c>
       <c r="F11">
-        <v>1.019301267677912</v>
+        <v>1.045472587167383</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05378491483138</v>
+        <v>1.038874086912159</v>
       </c>
       <c r="J11">
-        <v>0.9890962604419535</v>
+        <v>1.015191244599724</v>
       </c>
       <c r="K11">
-        <v>1.043488424161803</v>
+        <v>1.046659146050773</v>
       </c>
       <c r="L11">
-        <v>0.9871774452697052</v>
+        <v>1.014756927325849</v>
       </c>
       <c r="M11">
-        <v>1.033868144284256</v>
+        <v>1.049004925866656</v>
       </c>
       <c r="N11">
-        <v>1.00036723138993</v>
+        <v>1.009192650858092</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9566646910921719</v>
+        <v>1.008202179127635</v>
       </c>
       <c r="D12">
-        <v>1.02823902416331</v>
+        <v>1.042971427313497</v>
       </c>
       <c r="E12">
-        <v>0.9707774588401347</v>
+        <v>1.010906502454154</v>
       </c>
       <c r="F12">
-        <v>1.018245569706942</v>
+        <v>1.045280899943204</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053428212685091</v>
+        <v>1.038838445778189</v>
       </c>
       <c r="J12">
-        <v>0.9884234608696085</v>
+        <v>1.015057068759728</v>
       </c>
       <c r="K12">
-        <v>1.042844495022997</v>
+        <v>1.04655750715481</v>
       </c>
       <c r="L12">
-        <v>0.9864867802486283</v>
+        <v>1.014615456594588</v>
       </c>
       <c r="M12">
-        <v>1.033031367255595</v>
+        <v>1.048858451842831</v>
       </c>
       <c r="N12">
-        <v>1.000139761521705</v>
+        <v>1.009147728924999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9569214692032465</v>
+        <v>1.008250179130058</v>
       </c>
       <c r="D13">
-        <v>1.028423160601711</v>
+        <v>1.043002930863002</v>
       </c>
       <c r="E13">
-        <v>0.9709760528319098</v>
+        <v>1.010946922663809</v>
       </c>
       <c r="F13">
-        <v>1.01847261743399</v>
+        <v>1.045322028775497</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053505059783959</v>
+        <v>1.038846111409308</v>
       </c>
       <c r="J13">
-        <v>0.9885681369863093</v>
+        <v>1.015085850399616</v>
       </c>
       <c r="K13">
-        <v>1.042983074951112</v>
+        <v>1.046579328389236</v>
       </c>
       <c r="L13">
-        <v>0.9866352766329305</v>
+        <v>1.01464580078028</v>
       </c>
       <c r="M13">
-        <v>1.033211391286837</v>
+        <v>1.048889887803905</v>
       </c>
       <c r="N13">
-        <v>1.000188677077724</v>
+        <v>1.009157365465126</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9577604153324842</v>
+        <v>1.008407471536686</v>
       </c>
       <c r="D14">
-        <v>1.029024566445998</v>
+        <v>1.043106103075512</v>
       </c>
       <c r="E14">
-        <v>0.9716251847511223</v>
+        <v>1.011079390453574</v>
       </c>
       <c r="F14">
-        <v>1.019214271661536</v>
+        <v>1.045456747326622</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053755579661259</v>
+        <v>1.038871150042181</v>
       </c>
       <c r="J14">
-        <v>0.9890408075910881</v>
+        <v>1.015180153794869</v>
       </c>
       <c r="K14">
-        <v>1.043435401374746</v>
+        <v>1.046650753272098</v>
       </c>
       <c r="L14">
-        <v>0.9871205102885103</v>
+        <v>1.014745232516433</v>
       </c>
       <c r="M14">
-        <v>1.033799215457385</v>
+        <v>1.048992825848484</v>
       </c>
       <c r="N14">
-        <v>1.000348483696483</v>
+        <v>1.009188937883015</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9582754897550421</v>
+        <v>1.008504397446361</v>
       </c>
       <c r="D15">
-        <v>1.029393642074551</v>
+        <v>1.04316963141567</v>
       </c>
       <c r="E15">
-        <v>0.9720239385929083</v>
+        <v>1.01116102961379</v>
       </c>
       <c r="F15">
-        <v>1.019669490566309</v>
+        <v>1.045539718823229</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053908960824168</v>
+        <v>1.038886517158765</v>
       </c>
       <c r="J15">
-        <v>0.9893309928448363</v>
+        <v>1.01523825584438</v>
       </c>
       <c r="K15">
-        <v>1.04371276817364</v>
+        <v>1.046694703815339</v>
       </c>
       <c r="L15">
-        <v>0.9874184708505213</v>
+        <v>1.014806500843742</v>
       </c>
       <c r="M15">
-        <v>1.034159841415716</v>
+        <v>1.049056200183476</v>
       </c>
       <c r="N15">
-        <v>1.000446589287426</v>
+        <v>1.009208388831403</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9612460954216948</v>
+        <v>1.009068743777289</v>
       </c>
       <c r="D16">
-        <v>1.031519675268503</v>
+        <v>1.043538789458782</v>
       </c>
       <c r="E16">
-        <v>0.9743269151722983</v>
+        <v>1.011636530169779</v>
       </c>
       <c r="F16">
-        <v>1.022292909682737</v>
+        <v>1.046022142326786</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054787009479919</v>
+        <v>1.03897504319183</v>
       </c>
       <c r="J16">
-        <v>0.991004357815614</v>
+        <v>1.015576412946992</v>
       </c>
       <c r="K16">
-        <v>1.045307157018011</v>
+        <v>1.046949647968287</v>
       </c>
       <c r="L16">
-        <v>0.9891376167847011</v>
+        <v>1.015163186810779</v>
       </c>
       <c r="M16">
-        <v>1.036235464524574</v>
+        <v>1.049424313386786</v>
       </c>
       <c r="N16">
-        <v>1.001012255277716</v>
+        <v>1.009321573054909</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.963085981924465</v>
+        <v>1.009422914759754</v>
       </c>
       <c r="D17">
-        <v>1.032834096350824</v>
+        <v>1.043769818346784</v>
       </c>
       <c r="E17">
-        <v>0.9757560734104375</v>
+        <v>1.011935084440361</v>
       </c>
       <c r="F17">
-        <v>1.02391589825694</v>
+        <v>1.046324305774273</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055325002880112</v>
+        <v>1.039029764389669</v>
       </c>
       <c r="J17">
-        <v>0.9920405401540022</v>
+        <v>1.015788509784907</v>
       </c>
       <c r="K17">
-        <v>1.046289916704096</v>
+        <v>1.047108802462652</v>
       </c>
       <c r="L17">
-        <v>0.9902029727084076</v>
+        <v>1.015386994108909</v>
       </c>
       <c r="M17">
-        <v>1.037517198525644</v>
+        <v>1.049654556171133</v>
       </c>
       <c r="N17">
-        <v>1.001362468097232</v>
+        <v>1.009392544926084</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9641509169253902</v>
+        <v>1.009629558138939</v>
       </c>
       <c r="D18">
-        <v>1.033593986693154</v>
+        <v>1.043904380311411</v>
       </c>
       <c r="E18">
-        <v>0.9765842542585927</v>
+        <v>1.012109328440131</v>
       </c>
       <c r="F18">
-        <v>1.024854572556464</v>
+        <v>1.046500390329577</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055634260069568</v>
+        <v>1.039061390448683</v>
       </c>
       <c r="J18">
-        <v>0.9926401863313181</v>
+        <v>1.015912214670602</v>
       </c>
       <c r="K18">
-        <v>1.046856988964899</v>
+        <v>1.04720135816268</v>
       </c>
       <c r="L18">
-        <v>0.9908197974472743</v>
+        <v>1.015517561119598</v>
       </c>
       <c r="M18">
-        <v>1.038257645124669</v>
+        <v>1.049788612533481</v>
       </c>
       <c r="N18">
-        <v>1.001565116154138</v>
+        <v>1.009433932263839</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9645126556236211</v>
+        <v>1.009700028579078</v>
       </c>
       <c r="D19">
-        <v>1.033851949537076</v>
+        <v>1.043950229608683</v>
       </c>
       <c r="E19">
-        <v>0.9768657356614694</v>
+        <v>1.012168758454653</v>
       </c>
       <c r="F19">
-        <v>1.025173296341261</v>
+        <v>1.046560403013136</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055738943500848</v>
+        <v>1.039072124570461</v>
       </c>
       <c r="J19">
-        <v>0.9928438565240197</v>
+        <v>1.015954393516608</v>
       </c>
       <c r="K19">
-        <v>1.04704931127421</v>
+        <v>1.047232870317112</v>
       </c>
       <c r="L19">
-        <v>0.9910293523655811</v>
+        <v>1.015562085132161</v>
       </c>
       <c r="M19">
-        <v>1.038508914626779</v>
+        <v>1.049834281449764</v>
       </c>
       <c r="N19">
-        <v>1.001633941734693</v>
+        <v>1.009448042677806</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9628894368081348</v>
+        <v>1.009384909202592</v>
       </c>
       <c r="D20">
-        <v>1.032693776393147</v>
+        <v>1.043745051107941</v>
       </c>
       <c r="E20">
-        <v>0.9756033022862747</v>
+        <v>1.011903041795676</v>
       </c>
       <c r="F20">
-        <v>1.023742596699415</v>
+        <v>1.046291903262571</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055267752777825</v>
+        <v>1.039023923505642</v>
       </c>
       <c r="J20">
-        <v>0.9919298605594056</v>
+        <v>1.015765754581096</v>
       </c>
       <c r="K20">
-        <v>1.046185114740294</v>
+        <v>1.047091755268902</v>
       </c>
       <c r="L20">
-        <v>0.9900891462453547</v>
+        <v>1.015362979213183</v>
       </c>
       <c r="M20">
-        <v>1.037380424810625</v>
+        <v>1.0496298781441</v>
       </c>
       <c r="N20">
-        <v>1.001325062508454</v>
+        <v>1.00938493128063</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9575137487851222</v>
+        <v>1.008361150160978</v>
       </c>
       <c r="D21">
-        <v>1.028847774465927</v>
+        <v>1.043075729647737</v>
       </c>
       <c r="E21">
-        <v>0.9714342819418276</v>
+        <v>1.011040377533879</v>
       </c>
       <c r="F21">
-        <v>1.018996236164137</v>
+        <v>1.045417082951586</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053682010744663</v>
+        <v>1.038863789288508</v>
       </c>
       <c r="J21">
-        <v>0.9889018357868503</v>
+        <v>1.015152384081994</v>
       </c>
       <c r="K21">
-        <v>1.043302479448</v>
+        <v>1.04662973222946</v>
       </c>
       <c r="L21">
-        <v>0.9869778317149005</v>
+        <v>1.014715951272867</v>
       </c>
       <c r="M21">
-        <v>1.033626439969997</v>
+        <v>1.048962523403725</v>
       </c>
       <c r="N21">
-        <v>1.000301499132859</v>
+        <v>1.009179640979702</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9540546076314125</v>
+        <v>1.007718033132291</v>
       </c>
       <c r="D22">
-        <v>1.026365757272103</v>
+        <v>1.042653175631372</v>
       </c>
       <c r="E22">
-        <v>0.9687611148975993</v>
+        <v>1.010498918680515</v>
       </c>
       <c r="F22">
-        <v>1.015936505736022</v>
+        <v>1.044865603707019</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052642691616872</v>
+        <v>1.038760485313843</v>
       </c>
       <c r="J22">
-        <v>0.9869527621247136</v>
+        <v>1.014766672389587</v>
       </c>
       <c r="K22">
-        <v>1.041432393719588</v>
+        <v>1.046336763412884</v>
       </c>
       <c r="L22">
-        <v>0.9849779037435979</v>
+        <v>1.014309363193648</v>
       </c>
       <c r="M22">
-        <v>1.031198732940838</v>
+        <v>1.048540781312764</v>
       </c>
       <c r="N22">
-        <v>0.9996424732379698</v>
+        <v>1.009050485273617</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9558961269868389</v>
+        <v>1.008058908109133</v>
       </c>
       <c r="D23">
-        <v>1.027687713870758</v>
+        <v>1.042877342247162</v>
       </c>
       <c r="E23">
-        <v>0.9701832899530924</v>
+        <v>1.01078586737943</v>
       </c>
       <c r="F23">
-        <v>1.017565862441147</v>
+        <v>1.045158089444237</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053197732150374</v>
+        <v>1.038815496765464</v>
       </c>
       <c r="J23">
-        <v>0.987990417817061</v>
+        <v>1.014971150916646</v>
       </c>
       <c r="K23">
-        <v>1.042429338312378</v>
+        <v>1.046492305820005</v>
       </c>
       <c r="L23">
-        <v>0.9860423720913782</v>
+        <v>1.014524881608569</v>
       </c>
       <c r="M23">
-        <v>1.032492241882673</v>
+        <v>1.048764557784398</v>
       </c>
       <c r="N23">
-        <v>0.9999933437119736</v>
+        <v>1.009118960755002</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9629782724967922</v>
+        <v>1.009402082088177</v>
       </c>
       <c r="D24">
-        <v>1.032757201894721</v>
+        <v>1.043756242954464</v>
       </c>
       <c r="E24">
-        <v>0.9756723497080915</v>
+        <v>1.011917520171477</v>
       </c>
       <c r="F24">
-        <v>1.023820928860564</v>
+        <v>1.046306545064424</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055293635666822</v>
+        <v>1.039026563651688</v>
       </c>
       <c r="J24">
-        <v>0.9919798865303648</v>
+        <v>1.015776036701817</v>
       </c>
       <c r="K24">
-        <v>1.04623248923394</v>
+        <v>1.047099459016215</v>
       </c>
       <c r="L24">
-        <v>0.9901405936503845</v>
+        <v>1.015373830436801</v>
       </c>
       <c r="M24">
-        <v>1.037442249084108</v>
+        <v>1.049641029825086</v>
       </c>
       <c r="N24">
-        <v>1.001341969497516</v>
+        <v>1.009388371588224</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9708756275138535</v>
+        <v>1.010963166826098</v>
       </c>
       <c r="D25">
-        <v>1.038374915071201</v>
+        <v>1.04476856761513</v>
       </c>
       <c r="E25">
-        <v>0.98183070306793</v>
+        <v>1.013234749512647</v>
       </c>
       <c r="F25">
-        <v>1.030767792222467</v>
+        <v>1.047632889101172</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057548094833271</v>
+        <v>1.03926004015342</v>
       </c>
       <c r="J25">
-        <v>0.9964245304582894</v>
+        <v>1.016709759390862</v>
       </c>
       <c r="K25">
-        <v>1.050405347917036</v>
+        <v>1.047793175446224</v>
       </c>
       <c r="L25">
-        <v>0.9947177781321916</v>
+        <v>1.016359925592609</v>
       </c>
       <c r="M25">
-        <v>1.042906541206682</v>
+        <v>1.050648689496398</v>
       </c>
       <c r="N25">
-        <v>1.002843580603776</v>
+        <v>1.009700639472655</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_97/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_97/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01221018469611</v>
+        <v>0.9769394586136301</v>
       </c>
       <c r="D2">
-        <v>1.045569785128762</v>
+        <v>1.042654817837615</v>
       </c>
       <c r="E2">
-        <v>1.014288546000627</v>
+        <v>0.9865869037983649</v>
       </c>
       <c r="F2">
-        <v>1.048685544409157</v>
+        <v>1.036074161629958</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039436976155305</v>
+        <v>1.059209371076828</v>
       </c>
       <c r="J2">
-        <v>1.017454211236662</v>
+        <v>0.9998324849080814</v>
       </c>
       <c r="K2">
-        <v>1.048337655675921</v>
+        <v>1.053550245052094</v>
       </c>
       <c r="L2">
-        <v>1.017147146308949</v>
+        <v>0.9982363222018755</v>
       </c>
       <c r="M2">
-        <v>1.05144469945639</v>
+        <v>1.047052801629391</v>
       </c>
       <c r="N2">
-        <v>1.00994939178592</v>
+        <v>1.003994105011295</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013116714357632</v>
+        <v>0.9812167363962168</v>
       </c>
       <c r="D3">
-        <v>1.046147893768083</v>
+        <v>1.045651863606077</v>
       </c>
       <c r="E3">
-        <v>1.015055512287565</v>
+        <v>0.9899567315804554</v>
       </c>
       <c r="F3">
-        <v>1.049446784146355</v>
+        <v>1.039798779713354</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039560038532723</v>
+        <v>1.060339108014398</v>
       </c>
       <c r="J3">
-        <v>1.017994566395177</v>
+        <v>1.00223288716241</v>
       </c>
       <c r="K3">
-        <v>1.048727839110871</v>
+        <v>1.055732131668202</v>
       </c>
       <c r="L3">
-        <v>1.017719132122746</v>
+        <v>1.000719751542913</v>
       </c>
       <c r="M3">
-        <v>1.052018165815712</v>
+        <v>1.049946545294953</v>
       </c>
       <c r="N3">
-        <v>1.010129820119729</v>
+        <v>1.004803926656853</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013703795212341</v>
+        <v>0.9839295641262196</v>
       </c>
       <c r="D4">
-        <v>1.046520266251091</v>
+        <v>1.047541793894986</v>
       </c>
       <c r="E4">
-        <v>1.015552622526932</v>
+        <v>0.9921005976472274</v>
       </c>
       <c r="F4">
-        <v>1.049937915616048</v>
+        <v>1.042151837246204</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039637156974232</v>
+        <v>1.061035595414661</v>
       </c>
       <c r="J4">
-        <v>1.018344121375491</v>
+        <v>1.003753482329549</v>
       </c>
       <c r="K4">
-        <v>1.048977914197344</v>
+        <v>1.057098391364824</v>
       </c>
       <c r="L4">
-        <v>1.018089420633729</v>
+        <v>1.002295305852044</v>
       </c>
       <c r="M4">
-        <v>1.0523871363357</v>
+        <v>1.051766812172059</v>
       </c>
       <c r="N4">
-        <v>1.01024647998461</v>
+        <v>1.005316651320306</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013950721462018</v>
+        <v>0.9850573597916285</v>
       </c>
       <c r="D5">
-        <v>1.046676401562198</v>
+        <v>1.048324753583305</v>
       </c>
       <c r="E5">
-        <v>1.015761805262442</v>
+        <v>0.9929933939943606</v>
       </c>
       <c r="F5">
-        <v>1.050144039545013</v>
+        <v>1.043127737997498</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039668975046893</v>
+        <v>1.061320252690999</v>
       </c>
       <c r="J5">
-        <v>1.018491051407282</v>
+        <v>1.004385160480684</v>
       </c>
       <c r="K5">
-        <v>1.049082469114757</v>
+        <v>1.057662058030773</v>
       </c>
       <c r="L5">
-        <v>1.018245130742215</v>
+        <v>1.00295038081103</v>
       </c>
       <c r="M5">
-        <v>1.052541746206001</v>
+        <v>1.052519821025229</v>
       </c>
       <c r="N5">
-        <v>1.010295501992123</v>
+        <v>1.005529575244892</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013992188319462</v>
+        <v>0.9852459910917314</v>
       </c>
       <c r="D6">
-        <v>1.046702593247039</v>
+        <v>1.048455544685013</v>
       </c>
       <c r="E6">
-        <v>1.015796939506255</v>
+        <v>0.9931428089444641</v>
       </c>
       <c r="F6">
-        <v>1.050178628190763</v>
+        <v>1.04329082383809</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039674282069646</v>
+        <v>1.061367573573032</v>
       </c>
       <c r="J6">
-        <v>1.018515720231938</v>
+        <v>1.004490784018957</v>
       </c>
       <c r="K6">
-        <v>1.049099990467059</v>
+        <v>1.057756077779146</v>
       </c>
       <c r="L6">
-        <v>1.018271277513722</v>
+        <v>1.003059949798155</v>
       </c>
       <c r="M6">
-        <v>1.052567676178244</v>
+        <v>1.052645544591153</v>
       </c>
       <c r="N6">
-        <v>1.010303731712491</v>
+        <v>1.005565174284856</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013707094192926</v>
+        <v>0.9839446830118018</v>
       </c>
       <c r="D7">
-        <v>1.046522354153342</v>
+        <v>1.047552300968453</v>
       </c>
       <c r="E7">
-        <v>1.015555416862429</v>
+        <v>0.9921125602057491</v>
       </c>
       <c r="F7">
-        <v>1.049940671223869</v>
+        <v>1.04216492921538</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039637584498116</v>
+        <v>1.061039430872504</v>
       </c>
       <c r="J7">
-        <v>1.018346084753088</v>
+        <v>1.003761952330685</v>
       </c>
       <c r="K7">
-        <v>1.048979313533907</v>
+        <v>1.057105964926942</v>
       </c>
       <c r="L7">
-        <v>1.01809150108093</v>
+        <v>1.002304087339778</v>
       </c>
       <c r="M7">
-        <v>1.05238920422917</v>
+        <v>1.051776921637707</v>
       </c>
       <c r="N7">
-        <v>1.010247135105255</v>
+        <v>1.005319506638698</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01251644732684</v>
+        <v>0.9783966248090475</v>
       </c>
       <c r="D8">
-        <v>1.045765510659034</v>
+        <v>1.043678057905963</v>
       </c>
       <c r="E8">
-        <v>1.014547572703912</v>
+        <v>0.9877335156052035</v>
       </c>
       <c r="F8">
-        <v>1.048943105850657</v>
+        <v>1.037344921496595</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039479084807838</v>
+        <v>1.059598394719806</v>
       </c>
       <c r="J8">
-        <v>1.017636844955866</v>
+        <v>1.000650609901166</v>
       </c>
       <c r="K8">
-        <v>1.048470015577145</v>
+        <v>1.054297182589587</v>
       </c>
       <c r="L8">
-        <v>1.017340414556784</v>
+        <v>0.9990822485139087</v>
       </c>
       <c r="M8">
-        <v>1.05163893856484</v>
+        <v>1.048041720939733</v>
       </c>
       <c r="N8">
-        <v>1.01001038663488</v>
+        <v>1.004270171381702</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010422222433714</v>
+        <v>0.9681784337173196</v>
       </c>
       <c r="D9">
-        <v>1.044418926061806</v>
+        <v>1.036461236849169</v>
       </c>
       <c r="E9">
-        <v>1.012778060446377</v>
+        <v>0.979722919609424</v>
       </c>
       <c r="F9">
-        <v>1.047174342393254</v>
+        <v>1.028399250836667</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039180614189156</v>
+        <v>1.05678889903003</v>
       </c>
       <c r="J9">
-        <v>1.016386426094656</v>
+        <v>0.9949071983327976</v>
       </c>
       <c r="K9">
-        <v>1.047554282607424</v>
+        <v>1.0489892118749</v>
       </c>
       <c r="L9">
-        <v>1.016018299797517</v>
+        <v>0.9931537745911131</v>
       </c>
       <c r="M9">
-        <v>1.050300893789225</v>
+        <v>1.041047780910469</v>
       </c>
       <c r="N9">
-        <v>1.009592539567516</v>
+        <v>1.002331078214524</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009028727386166</v>
+        <v>0.9610370393929565</v>
       </c>
       <c r="D10">
-        <v>1.043512654874704</v>
+        <v>1.031370205539606</v>
       </c>
       <c r="E10">
-        <v>1.011602804547341</v>
+        <v>0.974164662726177</v>
       </c>
       <c r="F10">
-        <v>1.045987973050702</v>
+        <v>1.022108404034902</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038968819703922</v>
+        <v>1.054725591643312</v>
       </c>
       <c r="J10">
-        <v>1.015552442958052</v>
+        <v>0.9908866094917028</v>
       </c>
       <c r="K10">
-        <v>1.046931624623644</v>
+        <v>1.045195255725286</v>
       </c>
       <c r="L10">
-        <v>1.015137897706406</v>
+        <v>0.9890165936669348</v>
       </c>
       <c r="M10">
-        <v>1.049398261267985</v>
+        <v>1.036089637167004</v>
       </c>
       <c r="N10">
-        <v>1.009313551294094</v>
+        <v>1.000972455262911</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008425972335102</v>
+        <v>0.9578588419050685</v>
       </c>
       <c r="D11">
-        <v>1.043118231916976</v>
+        <v>1.029095103377923</v>
       </c>
       <c r="E11">
-        <v>1.011094972761635</v>
+        <v>0.971701370647987</v>
       </c>
       <c r="F11">
-        <v>1.045472587167383</v>
+        <v>1.019301267677912</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038874086912159</v>
+        <v>1.05378491483138</v>
       </c>
       <c r="J11">
-        <v>1.015191244599724</v>
+        <v>0.9890962604419534</v>
       </c>
       <c r="K11">
-        <v>1.046659146050773</v>
+        <v>1.043488424161803</v>
       </c>
       <c r="L11">
-        <v>1.014756927325849</v>
+        <v>0.9871774452697051</v>
       </c>
       <c r="M11">
-        <v>1.049004925866656</v>
+        <v>1.033868144284256</v>
       </c>
       <c r="N11">
-        <v>1.009192650858092</v>
+        <v>1.00036723138993</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008202179127635</v>
+        <v>0.9566646910921723</v>
       </c>
       <c r="D12">
-        <v>1.042971427313497</v>
+        <v>1.02823902416331</v>
       </c>
       <c r="E12">
-        <v>1.010906502454154</v>
+        <v>0.9707774588401351</v>
       </c>
       <c r="F12">
-        <v>1.045280899943204</v>
+        <v>1.018245569706942</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038838445778189</v>
+        <v>1.053428212685091</v>
       </c>
       <c r="J12">
-        <v>1.015057068759728</v>
+        <v>0.9884234608696089</v>
       </c>
       <c r="K12">
-        <v>1.04655750715481</v>
+        <v>1.042844495022997</v>
       </c>
       <c r="L12">
-        <v>1.014615456594588</v>
+        <v>0.9864867802486288</v>
       </c>
       <c r="M12">
-        <v>1.048858451842831</v>
+        <v>1.033031367255595</v>
       </c>
       <c r="N12">
-        <v>1.009147728924999</v>
+        <v>1.000139761521705</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008250179130058</v>
+        <v>0.9569214692032462</v>
       </c>
       <c r="D13">
-        <v>1.043002930863002</v>
+        <v>1.028423160601711</v>
       </c>
       <c r="E13">
-        <v>1.010946922663809</v>
+        <v>0.9709760528319094</v>
       </c>
       <c r="F13">
-        <v>1.045322028775497</v>
+        <v>1.018472617433991</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038846111409308</v>
+        <v>1.053505059783959</v>
       </c>
       <c r="J13">
-        <v>1.015085850399616</v>
+        <v>0.988568136986309</v>
       </c>
       <c r="K13">
-        <v>1.046579328389236</v>
+        <v>1.042983074951113</v>
       </c>
       <c r="L13">
-        <v>1.01464580078028</v>
+        <v>0.98663527663293</v>
       </c>
       <c r="M13">
-        <v>1.048889887803905</v>
+        <v>1.033211391286838</v>
       </c>
       <c r="N13">
-        <v>1.009157365465126</v>
+        <v>1.000188677077723</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008407471536686</v>
+        <v>0.9577604153324845</v>
       </c>
       <c r="D14">
-        <v>1.043106103075512</v>
+        <v>1.029024566445998</v>
       </c>
       <c r="E14">
-        <v>1.011079390453574</v>
+        <v>0.9716251847511226</v>
       </c>
       <c r="F14">
-        <v>1.045456747326622</v>
+        <v>1.019214271661536</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038871150042181</v>
+        <v>1.053755579661259</v>
       </c>
       <c r="J14">
-        <v>1.015180153794869</v>
+        <v>0.9890408075910884</v>
       </c>
       <c r="K14">
-        <v>1.046650753272098</v>
+        <v>1.043435401374745</v>
       </c>
       <c r="L14">
-        <v>1.014745232516433</v>
+        <v>0.9871205102885107</v>
       </c>
       <c r="M14">
-        <v>1.048992825848484</v>
+        <v>1.033799215457384</v>
       </c>
       <c r="N14">
-        <v>1.009188937883015</v>
+        <v>1.000348483696483</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008504397446361</v>
+        <v>0.9582754897550418</v>
       </c>
       <c r="D15">
-        <v>1.04316963141567</v>
+        <v>1.029393642074551</v>
       </c>
       <c r="E15">
-        <v>1.01116102961379</v>
+        <v>0.9720239385929078</v>
       </c>
       <c r="F15">
-        <v>1.045539718823229</v>
+        <v>1.019669490566309</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038886517158765</v>
+        <v>1.053908960824168</v>
       </c>
       <c r="J15">
-        <v>1.01523825584438</v>
+        <v>0.9893309928448361</v>
       </c>
       <c r="K15">
-        <v>1.046694703815339</v>
+        <v>1.04371276817364</v>
       </c>
       <c r="L15">
-        <v>1.014806500843742</v>
+        <v>0.9874184708505208</v>
       </c>
       <c r="M15">
-        <v>1.049056200183476</v>
+        <v>1.034159841415716</v>
       </c>
       <c r="N15">
-        <v>1.009208388831403</v>
+        <v>1.000446589287426</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009068743777289</v>
+        <v>0.9612460954216937</v>
       </c>
       <c r="D16">
-        <v>1.043538789458782</v>
+        <v>1.031519675268502</v>
       </c>
       <c r="E16">
-        <v>1.011636530169779</v>
+        <v>0.9743269151722971</v>
       </c>
       <c r="F16">
-        <v>1.046022142326786</v>
+        <v>1.022292909682736</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03897504319183</v>
+        <v>1.054787009479918</v>
       </c>
       <c r="J16">
-        <v>1.015576412946992</v>
+        <v>0.9910043578156132</v>
       </c>
       <c r="K16">
-        <v>1.046949647968287</v>
+        <v>1.04530715701801</v>
       </c>
       <c r="L16">
-        <v>1.015163186810779</v>
+        <v>0.9891376167847</v>
       </c>
       <c r="M16">
-        <v>1.049424313386786</v>
+        <v>1.036235464524573</v>
       </c>
       <c r="N16">
-        <v>1.009321573054909</v>
+        <v>1.001012255277715</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009422914759754</v>
+        <v>0.9630859819244653</v>
       </c>
       <c r="D17">
-        <v>1.043769818346784</v>
+        <v>1.032834096350825</v>
       </c>
       <c r="E17">
-        <v>1.011935084440361</v>
+        <v>0.9757560734104377</v>
       </c>
       <c r="F17">
-        <v>1.046324305774273</v>
+        <v>1.02391589825694</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039029764389669</v>
+        <v>1.055325002880111</v>
       </c>
       <c r="J17">
-        <v>1.015788509784907</v>
+        <v>0.9920405401540023</v>
       </c>
       <c r="K17">
-        <v>1.047108802462652</v>
+        <v>1.046289916704096</v>
       </c>
       <c r="L17">
-        <v>1.015386994108909</v>
+        <v>0.9902029727084077</v>
       </c>
       <c r="M17">
-        <v>1.049654556171133</v>
+        <v>1.037517198525644</v>
       </c>
       <c r="N17">
-        <v>1.009392544926084</v>
+        <v>1.001362468097232</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009629558138939</v>
+        <v>0.96415091692539</v>
       </c>
       <c r="D18">
-        <v>1.043904380311411</v>
+        <v>1.033593986693154</v>
       </c>
       <c r="E18">
-        <v>1.012109328440131</v>
+        <v>0.9765842542585927</v>
       </c>
       <c r="F18">
-        <v>1.046500390329577</v>
+        <v>1.024854572556463</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039061390448683</v>
+        <v>1.055634260069568</v>
       </c>
       <c r="J18">
-        <v>1.015912214670602</v>
+        <v>0.992640186331318</v>
       </c>
       <c r="K18">
-        <v>1.04720135816268</v>
+        <v>1.046856988964898</v>
       </c>
       <c r="L18">
-        <v>1.015517561119598</v>
+        <v>0.9908197974472742</v>
       </c>
       <c r="M18">
-        <v>1.049788612533481</v>
+        <v>1.038257645124668</v>
       </c>
       <c r="N18">
-        <v>1.009433932263839</v>
+        <v>1.001565116154138</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009700028579078</v>
+        <v>0.964512655623621</v>
       </c>
       <c r="D19">
-        <v>1.043950229608683</v>
+        <v>1.033851949537076</v>
       </c>
       <c r="E19">
-        <v>1.012168758454653</v>
+        <v>0.9768657356614691</v>
       </c>
       <c r="F19">
-        <v>1.046560403013136</v>
+        <v>1.02517329634126</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039072124570461</v>
+        <v>1.055738943500847</v>
       </c>
       <c r="J19">
-        <v>1.015954393516608</v>
+        <v>0.9928438565240197</v>
       </c>
       <c r="K19">
-        <v>1.047232870317112</v>
+        <v>1.047049311274209</v>
       </c>
       <c r="L19">
-        <v>1.015562085132161</v>
+        <v>0.9910293523655808</v>
       </c>
       <c r="M19">
-        <v>1.049834281449764</v>
+        <v>1.038508914626779</v>
       </c>
       <c r="N19">
-        <v>1.009448042677806</v>
+        <v>1.001633941734693</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009384909202592</v>
+        <v>0.9628894368081347</v>
       </c>
       <c r="D20">
-        <v>1.043745051107941</v>
+        <v>1.032693776393147</v>
       </c>
       <c r="E20">
-        <v>1.011903041795676</v>
+        <v>0.9756033022862748</v>
       </c>
       <c r="F20">
-        <v>1.046291903262571</v>
+        <v>1.023742596699415</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039023923505642</v>
+        <v>1.055267752777825</v>
       </c>
       <c r="J20">
-        <v>1.015765754581096</v>
+        <v>0.9919298605594057</v>
       </c>
       <c r="K20">
-        <v>1.047091755268902</v>
+        <v>1.046185114740294</v>
       </c>
       <c r="L20">
-        <v>1.015362979213183</v>
+        <v>0.9900891462453548</v>
       </c>
       <c r="M20">
-        <v>1.0496298781441</v>
+        <v>1.037380424810625</v>
       </c>
       <c r="N20">
-        <v>1.00938493128063</v>
+        <v>1.001325062508454</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008361150160978</v>
+        <v>0.9575137487851222</v>
       </c>
       <c r="D21">
-        <v>1.043075729647737</v>
+        <v>1.028847774465927</v>
       </c>
       <c r="E21">
-        <v>1.011040377533879</v>
+        <v>0.9714342819418272</v>
       </c>
       <c r="F21">
-        <v>1.045417082951586</v>
+        <v>1.018996236164136</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038863789288508</v>
+        <v>1.053682010744663</v>
       </c>
       <c r="J21">
-        <v>1.015152384081994</v>
+        <v>0.9889018357868503</v>
       </c>
       <c r="K21">
-        <v>1.04662973222946</v>
+        <v>1.043302479448</v>
       </c>
       <c r="L21">
-        <v>1.014715951272867</v>
+        <v>0.9869778317149002</v>
       </c>
       <c r="M21">
-        <v>1.048962523403725</v>
+        <v>1.033626439969996</v>
       </c>
       <c r="N21">
-        <v>1.009179640979702</v>
+        <v>1.000301499132859</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007718033132291</v>
+        <v>0.9540546076314127</v>
       </c>
       <c r="D22">
-        <v>1.042653175631372</v>
+        <v>1.026365757272104</v>
       </c>
       <c r="E22">
-        <v>1.010498918680515</v>
+        <v>0.9687611148975991</v>
       </c>
       <c r="F22">
-        <v>1.044865603707019</v>
+        <v>1.015936505736022</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038760485313843</v>
+        <v>1.052642691616872</v>
       </c>
       <c r="J22">
-        <v>1.014766672389587</v>
+        <v>0.9869527621247137</v>
       </c>
       <c r="K22">
-        <v>1.046336763412884</v>
+        <v>1.041432393719588</v>
       </c>
       <c r="L22">
-        <v>1.014309363193648</v>
+        <v>0.9849779037435978</v>
       </c>
       <c r="M22">
-        <v>1.048540781312764</v>
+        <v>1.031198732940839</v>
       </c>
       <c r="N22">
-        <v>1.009050485273617</v>
+        <v>0.9996424732379698</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008058908109133</v>
+        <v>0.9558961269868391</v>
       </c>
       <c r="D23">
-        <v>1.042877342247162</v>
+        <v>1.027687713870758</v>
       </c>
       <c r="E23">
-        <v>1.01078586737943</v>
+        <v>0.9701832899530926</v>
       </c>
       <c r="F23">
-        <v>1.045158089444237</v>
+        <v>1.017565862441147</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038815496765464</v>
+        <v>1.053197732150375</v>
       </c>
       <c r="J23">
-        <v>1.014971150916646</v>
+        <v>0.9879904178170612</v>
       </c>
       <c r="K23">
-        <v>1.046492305820005</v>
+        <v>1.042429338312378</v>
       </c>
       <c r="L23">
-        <v>1.014524881608569</v>
+        <v>0.9860423720913783</v>
       </c>
       <c r="M23">
-        <v>1.048764557784398</v>
+        <v>1.032492241882674</v>
       </c>
       <c r="N23">
-        <v>1.009118960755002</v>
+        <v>0.9999933437119737</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009402082088177</v>
+        <v>0.962978272496792</v>
       </c>
       <c r="D24">
-        <v>1.043756242954464</v>
+        <v>1.032757201894721</v>
       </c>
       <c r="E24">
-        <v>1.011917520171477</v>
+        <v>0.9756723497080911</v>
       </c>
       <c r="F24">
-        <v>1.046306545064424</v>
+        <v>1.023820928860564</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039026563651688</v>
+        <v>1.055293635666822</v>
       </c>
       <c r="J24">
-        <v>1.015776036701817</v>
+        <v>0.9919798865303645</v>
       </c>
       <c r="K24">
-        <v>1.047099459016215</v>
+        <v>1.04623248923394</v>
       </c>
       <c r="L24">
-        <v>1.015373830436801</v>
+        <v>0.9901405936503843</v>
       </c>
       <c r="M24">
-        <v>1.049641029825086</v>
+        <v>1.037442249084107</v>
       </c>
       <c r="N24">
-        <v>1.009388371588224</v>
+        <v>1.001341969497516</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010963166826098</v>
+        <v>0.9708756275138538</v>
       </c>
       <c r="D25">
-        <v>1.04476856761513</v>
+        <v>1.038374915071201</v>
       </c>
       <c r="E25">
-        <v>1.013234749512647</v>
+        <v>0.9818307030679301</v>
       </c>
       <c r="F25">
-        <v>1.047632889101172</v>
+        <v>1.030767792222467</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03926004015342</v>
+        <v>1.057548094833271</v>
       </c>
       <c r="J25">
-        <v>1.016709759390862</v>
+        <v>0.9964245304582896</v>
       </c>
       <c r="K25">
-        <v>1.047793175446224</v>
+        <v>1.050405347917036</v>
       </c>
       <c r="L25">
-        <v>1.016359925592609</v>
+        <v>0.9947177781321918</v>
       </c>
       <c r="M25">
-        <v>1.050648689496398</v>
+        <v>1.042906541206682</v>
       </c>
       <c r="N25">
-        <v>1.009700639472655</v>
+        <v>1.002843580603776</v>
       </c>
     </row>
   </sheetData>
